--- a/Resource Allocation Sheet.xlsx
+++ b/Resource Allocation Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">Requirement </t>
   </si>
@@ -55,15 +55,13 @@
   </si>
   <si>
     <t>Client Specific Payment Cut off times
-CHAPS
-</t>
+CHAPS</t>
   </si>
   <si>
     <t>Get rate for number of payments (Bulk Get Rate)</t>
   </si>
   <si>
-    <t>Collections / Direct Debits
-</t>
+    <t>Collections / Direct Debits</t>
   </si>
   <si>
     <t>Local Language Support</t>
@@ -84,8 +82,7 @@
     <t>Adding new codes and changing field (23e) for MT101</t>
   </si>
   <si>
-    <t>CR737 (B.net) Remove CMR Validation within B.Net UI
-</t>
+    <t>CR737 (B.net) Remove CMR Validation within B.Net UI</t>
   </si>
   <si>
     <t>Duplicate Payment Production Issue</t>
@@ -205,6 +202,12 @@
     <t>REPLACEMENT 2*</t>
   </si>
   <si>
+    <t>REPLACEMENT 3*</t>
+  </si>
+  <si>
+    <t>REPLACEMENT 4*</t>
+  </si>
+  <si>
     <t>Requirement</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>Wed</t>
+  </si>
+  <si>
+    <t>UNABLE TO ALLOCATED</t>
   </si>
 </sst>
 </file>
@@ -415,77 +421,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF569CA7"/>
+      <color rgb="FF2445E5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF8EC610"/>
+      <color rgb="FFD5249B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF150B42"/>
+      <color rgb="FFE3B480"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3E30DB"/>
+      <color rgb="FFB028EA"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7ED96B"/>
+      <color rgb="FFEFD07A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFE20AC2"/>
+      <color rgb="FF5302D1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCB86CB"/>
+      <color rgb="FF3D7EDA"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFD306F2"/>
+      <color rgb="FF45FD01"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF8B6950"/>
+      <color rgb="FFFD615F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFEF9BA7"/>
+      <color rgb="FF6192B6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF53CCFD"/>
+      <color rgb="FF20753B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,57 +512,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF569CA7" tint="0"/>
+        <fgColor rgb="FF2445E5" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EC610" tint="0"/>
+        <fgColor rgb="FFD5249B" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF150B42" tint="0"/>
+        <fgColor rgb="FFE3B480" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3E30DB" tint="0"/>
+        <fgColor rgb="FFB028EA" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7ED96B" tint="0"/>
+        <fgColor rgb="FFEFD07A" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE20AC2" tint="0"/>
+        <fgColor rgb="FF5302D1" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCB86CB" tint="0"/>
+        <fgColor rgb="FF3D7EDA" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD306F2" tint="0"/>
+        <fgColor rgb="FF45FD01" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8B6950" tint="0"/>
+        <fgColor rgb="FFFD615F" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEF9BA7" tint="0"/>
+        <fgColor rgb="FF6192B6" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF53CCFD" tint="0"/>
+        <fgColor rgb="FF20753B" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -651,7 +657,6 @@
     <xf fontId="8" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="10" applyFont="1" fillId="6" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="11" applyFont="1" fillId="7" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="12" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="13" applyFont="1" fillId="9" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
@@ -659,6 +664,7 @@
     <xf fontId="15" applyFont="1" fillId="11" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="16" applyFont="1" fillId="12" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="17" applyFont="1" fillId="13" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" activeCellId="1" sqref="A30:XFD33 H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>42205</v>
+        <v>42180</v>
       </c>
       <c r="D16" s="2">
         <v>42237</v>
@@ -1231,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>42205</v>
+        <v>42180</v>
       </c>
       <c r="D17" s="2">
         <v>42237</v>
@@ -1248,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>42205</v>
+        <v>42180</v>
       </c>
       <c r="D18" s="2">
         <v>42237</v>
@@ -1265,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>42205</v>
+        <v>42180</v>
       </c>
       <c r="D19" s="2">
         <v>42237</v>
@@ -1282,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>42205</v>
+        <v>42180</v>
       </c>
       <c r="D20" s="2">
         <v>42237</v>
@@ -1299,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>42205</v>
+        <v>42180</v>
       </c>
       <c r="D21" s="2">
         <v>42237</v>
@@ -1316,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>42193</v>
+        <v>42180</v>
       </c>
       <c r="D22" s="2">
         <v>42237</v>
@@ -1333,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>42193</v>
+        <v>42180</v>
       </c>
       <c r="D23" s="2">
         <v>42237</v>
@@ -1350,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>42193</v>
+        <v>42180</v>
       </c>
       <c r="D24" s="2">
         <v>42237</v>
@@ -1367,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>42193</v>
+        <v>42180</v>
       </c>
       <c r="D25" s="2">
         <v>42237</v>
@@ -1384,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>42193</v>
+        <v>42180</v>
       </c>
       <c r="D26" s="2">
         <v>42237</v>
@@ -1401,13 +1407,47 @@
         <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>42193</v>
+        <v>42180</v>
       </c>
       <c r="D27" s="2">
         <v>42237</v>
       </c>
       <c r="E27" s="13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42180</v>
+      </c>
+      <c r="D28" s="2">
+        <v>42237</v>
+      </c>
+      <c r="E28" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42180</v>
+      </c>
+      <c r="D29" s="2">
+        <v>42237</v>
+      </c>
+      <c r="E29" s="13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1421,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="48.75">
+    <row r="2" ht="36.75">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1552,7 +1592,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" ht="36.75">
+    <row r="4" ht="24.75">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1804,7 +1844,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" ht="48.75">
+    <row r="11" ht="36.75">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2137,14 +2177,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AV29"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" style="15"/>
-    <col min="2" max="2" width="12" customWidth="1" style="15"/>
+    <col min="1" max="1" width="20" customWidth="1" style="15"/>
+    <col min="2" max="2" width="20" customWidth="1" style="15"/>
     <col min="3" max="3" width="12" customWidth="1" style="15"/>
     <col min="4" max="4" width="8" customWidth="1" style="15"/>
     <col min="5" max="5" width="4.8" customWidth="1"/>
@@ -2195,148 +2235,148 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AA1" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH1" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AI1" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ1" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK1" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AL1" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AM1" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AN1" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AO1" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AP1" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AQ1" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AR1" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AS1" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AT1" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AU1" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AV1" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="9.8" customHeight="1">
@@ -2345,130 +2385,130 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="R2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="T2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" s="18" t="s">
+      <c r="W2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="AA2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="Y2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AB2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AE2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AF2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AD2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AG2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AJ2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AK2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AI2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AL2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AL2" s="18" t="s">
+      <c r="AO2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AP2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AN2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AQ2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AQ2" s="18" t="s">
+      <c r="AT2" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="AR2" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT2" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="AU2" s="16"/>
       <c r="AV2" s="16"/>
@@ -2591,13 +2631,13 @@
       <c r="AM3" s="19">
         <v>1</v>
       </c>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="23"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
-      <c r="AT3" s="23"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
       <c r="AU3" s="16">
         <v>35</v>
       </c>
@@ -2721,13 +2761,13 @@
       <c r="AM4" s="19">
         <v>1</v>
       </c>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="30"/>
+      <c r="AT4" s="30"/>
       <c r="AU4" s="16">
         <v>35</v>
       </c>
@@ -2851,13 +2891,13 @@
       <c r="AM5" s="19">
         <v>1</v>
       </c>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="23"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="30"/>
+      <c r="AT5" s="30"/>
       <c r="AU5" s="16">
         <v>35</v>
       </c>
@@ -2981,13 +3021,13 @@
       <c r="AM6" s="19">
         <v>1</v>
       </c>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="23"/>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="23"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
       <c r="AU6" s="16">
         <v>35</v>
       </c>
@@ -3111,13 +3151,13 @@
       <c r="AM7" s="19">
         <v>1</v>
       </c>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="23"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="23"/>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="23"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
       <c r="AU7" s="16">
         <v>35</v>
       </c>
@@ -3243,13 +3283,13 @@
       <c r="AM8" s="20">
         <v>1</v>
       </c>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="23"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="30"/>
+      <c r="AT8" s="30"/>
       <c r="AU8" s="16">
         <v>35</v>
       </c>
@@ -3373,13 +3413,13 @@
       <c r="AM9" s="20">
         <v>1</v>
       </c>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23"/>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
       <c r="AU9" s="16">
         <v>35</v>
       </c>
@@ -3473,23 +3513,23 @@
       <c r="AC10" s="20">
         <v>1</v>
       </c>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="23"/>
-      <c r="AO10" s="23"/>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="23"/>
-      <c r="AR10" s="23"/>
-      <c r="AS10" s="23"/>
-      <c r="AT10" s="23"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
       <c r="AU10" s="16">
         <v>25</v>
       </c>
@@ -3571,27 +3611,27 @@
       <c r="Y11" s="20">
         <v>1</v>
       </c>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="23"/>
-      <c r="AP11" s="23"/>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="23"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
       <c r="AU11" s="16">
         <v>21</v>
       </c>
@@ -3732,8 +3772,8 @@
       <c r="AR12" s="21">
         <v>1</v>
       </c>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
       <c r="AU12" s="16">
         <v>40</v>
       </c>
@@ -3872,8 +3912,8 @@
       <c r="AR13" s="21">
         <v>1</v>
       </c>
-      <c r="AS13" s="23"/>
-      <c r="AT13" s="23"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
       <c r="AU13" s="16">
         <v>40</v>
       </c>
@@ -4012,8 +4052,8 @@
       <c r="AR14" s="21">
         <v>1</v>
       </c>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
       <c r="AU14" s="16">
         <v>40</v>
       </c>
@@ -4094,28 +4134,28 @@
       <c r="X15" s="22">
         <v>1</v>
       </c>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="23"/>
-      <c r="AP15" s="23"/>
-      <c r="AQ15" s="23"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="30"/>
+      <c r="AT15" s="30"/>
       <c r="AU15" s="16">
         <v>20</v>
       </c>
@@ -4126,23 +4166,41 @@
     <row r="16">
       <c r="A16" s="17"/>
       <c r="B16" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="16">
-        <v>33</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22">
+        <v>1</v>
+      </c>
+      <c r="I16" s="22">
+        <v>1</v>
+      </c>
+      <c r="J16" s="22">
+        <v>1</v>
+      </c>
+      <c r="K16" s="22">
+        <v>1</v>
+      </c>
+      <c r="L16" s="22">
+        <v>1</v>
+      </c>
+      <c r="M16" s="22">
+        <v>1</v>
+      </c>
       <c r="N16" s="22">
         <v>1</v>
       </c>
@@ -4176,73 +4234,73 @@
       <c r="X16" s="22">
         <v>1</v>
       </c>
-      <c r="Y16" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="22">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
       <c r="AU16" s="16">
         <v>20</v>
       </c>
       <c r="AV16" s="16">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17"/>
       <c r="B17" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="16">
-        <v>33</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="22">
+        <v>1</v>
+      </c>
+      <c r="J17" s="22">
+        <v>1</v>
+      </c>
+      <c r="K17" s="22">
+        <v>1</v>
+      </c>
+      <c r="L17" s="22">
+        <v>1</v>
+      </c>
+      <c r="M17" s="22">
+        <v>1</v>
+      </c>
       <c r="N17" s="22">
         <v>1</v>
       </c>
@@ -4276,51 +4334,33 @@
       <c r="X17" s="22">
         <v>1</v>
       </c>
-      <c r="Y17" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="22">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="23"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="23"/>
-      <c r="AP17" s="23"/>
-      <c r="AQ17" s="23"/>
-      <c r="AR17" s="23"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="23"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="30"/>
+      <c r="AS17" s="30"/>
+      <c r="AT17" s="30"/>
       <c r="AU17" s="16">
         <v>20</v>
       </c>
       <c r="AV17" s="16">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -4388,30 +4428,30 @@
       <c r="V18" s="22">
         <v>1</v>
       </c>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="23"/>
-      <c r="AP18" s="23"/>
-      <c r="AQ18" s="23"/>
-      <c r="AR18" s="23"/>
-      <c r="AS18" s="23"/>
-      <c r="AT18" s="23"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30"/>
+      <c r="AS18" s="30"/>
+      <c r="AT18" s="30"/>
       <c r="AU18" s="16">
         <v>18</v>
       </c>
@@ -4424,91 +4464,91 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="16">
-        <v>33</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24">
-        <v>1</v>
-      </c>
-      <c r="O19" s="24">
-        <v>1</v>
-      </c>
-      <c r="P19" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>1</v>
-      </c>
-      <c r="R19" s="24">
-        <v>1</v>
-      </c>
-      <c r="S19" s="24">
-        <v>1</v>
-      </c>
-      <c r="T19" s="24">
-        <v>1</v>
-      </c>
-      <c r="U19" s="24">
-        <v>1</v>
-      </c>
-      <c r="V19" s="24">
-        <v>1</v>
-      </c>
-      <c r="W19" s="24">
-        <v>1</v>
-      </c>
-      <c r="X19" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="23"/>
-      <c r="AQ19" s="23"/>
-      <c r="AR19" s="23"/>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23">
+        <v>1</v>
+      </c>
+      <c r="K19" s="23">
+        <v>1</v>
+      </c>
+      <c r="L19" s="23">
+        <v>1</v>
+      </c>
+      <c r="M19" s="23">
+        <v>1</v>
+      </c>
+      <c r="N19" s="23">
+        <v>1</v>
+      </c>
+      <c r="O19" s="23">
+        <v>1</v>
+      </c>
+      <c r="P19" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>1</v>
+      </c>
+      <c r="R19" s="23">
+        <v>1</v>
+      </c>
+      <c r="S19" s="23">
+        <v>1</v>
+      </c>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="30"/>
+      <c r="AS19" s="30"/>
+      <c r="AT19" s="30"/>
       <c r="AU19" s="16">
         <v>15</v>
       </c>
       <c r="AV19" s="16">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -4516,159 +4556,159 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="16">
-        <v>33</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="25">
-        <v>1</v>
-      </c>
-      <c r="O20" s="25">
-        <v>1</v>
-      </c>
-      <c r="P20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>1</v>
-      </c>
-      <c r="R20" s="25">
-        <v>1</v>
-      </c>
-      <c r="S20" s="25">
-        <v>1</v>
-      </c>
-      <c r="T20" s="25">
-        <v>1</v>
-      </c>
-      <c r="U20" s="25">
-        <v>1</v>
-      </c>
-      <c r="V20" s="25">
-        <v>1</v>
-      </c>
-      <c r="W20" s="25">
-        <v>1</v>
-      </c>
-      <c r="X20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="23"/>
-      <c r="AN20" s="23"/>
-      <c r="AO20" s="23"/>
-      <c r="AP20" s="23"/>
-      <c r="AQ20" s="23"/>
-      <c r="AR20" s="23"/>
-      <c r="AS20" s="23"/>
-      <c r="AT20" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24">
+        <v>1</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1</v>
+      </c>
+      <c r="I20" s="24">
+        <v>1</v>
+      </c>
+      <c r="J20" s="24">
+        <v>1</v>
+      </c>
+      <c r="K20" s="24">
+        <v>1</v>
+      </c>
+      <c r="L20" s="24">
+        <v>1</v>
+      </c>
+      <c r="M20" s="24">
+        <v>1</v>
+      </c>
+      <c r="N20" s="24">
+        <v>1</v>
+      </c>
+      <c r="O20" s="24">
+        <v>1</v>
+      </c>
+      <c r="P20" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>1</v>
+      </c>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30"/>
+      <c r="AS20" s="30"/>
+      <c r="AT20" s="30"/>
       <c r="AU20" s="16">
         <v>13</v>
       </c>
       <c r="AV20" s="16">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17"/>
       <c r="B21" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="16">
-        <v>25</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="25">
-        <v>1</v>
-      </c>
-      <c r="W21" s="25">
-        <v>1</v>
-      </c>
-      <c r="X21" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="23"/>
-      <c r="AP21" s="23"/>
-      <c r="AQ21" s="23"/>
-      <c r="AR21" s="23"/>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="24">
+        <v>1</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1</v>
+      </c>
+      <c r="G21" s="24">
+        <v>1</v>
+      </c>
+      <c r="H21" s="24">
+        <v>1</v>
+      </c>
+      <c r="I21" s="24">
+        <v>1</v>
+      </c>
+      <c r="J21" s="24">
+        <v>1</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="30"/>
       <c r="AU21" s="16">
         <v>6</v>
       </c>
       <c r="AV21" s="16">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -4676,85 +4716,85 @@
         <v>18</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="16">
-        <v>33</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="26">
-        <v>1</v>
-      </c>
-      <c r="O22" s="26">
-        <v>1</v>
-      </c>
-      <c r="P22" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="26">
-        <v>1</v>
-      </c>
-      <c r="R22" s="26">
-        <v>1</v>
-      </c>
-      <c r="S22" s="26">
-        <v>1</v>
-      </c>
-      <c r="T22" s="26">
-        <v>1</v>
-      </c>
-      <c r="U22" s="26">
-        <v>1</v>
-      </c>
-      <c r="V22" s="26">
-        <v>1</v>
-      </c>
-      <c r="W22" s="26">
-        <v>1</v>
-      </c>
-      <c r="X22" s="26">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="26">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="23"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
-      <c r="AQ22" s="23"/>
-      <c r="AR22" s="23"/>
-      <c r="AS22" s="23"/>
-      <c r="AT22" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25">
+        <v>1</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1</v>
+      </c>
+      <c r="J22" s="25">
+        <v>1</v>
+      </c>
+      <c r="K22" s="25">
+        <v>1</v>
+      </c>
+      <c r="L22" s="25">
+        <v>1</v>
+      </c>
+      <c r="M22" s="25">
+        <v>1</v>
+      </c>
+      <c r="N22" s="25">
+        <v>1</v>
+      </c>
+      <c r="O22" s="25">
+        <v>1</v>
+      </c>
+      <c r="P22" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="30"/>
+      <c r="AS22" s="30"/>
+      <c r="AT22" s="30"/>
       <c r="AU22" s="16">
         <v>12</v>
       </c>
       <c r="AV22" s="16">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -4762,79 +4802,79 @@
         <v>19</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="16">
-        <v>33</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="27">
-        <v>1</v>
-      </c>
-      <c r="O23" s="27">
-        <v>1</v>
-      </c>
-      <c r="P23" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="27">
-        <v>1</v>
-      </c>
-      <c r="R23" s="27">
-        <v>1</v>
-      </c>
-      <c r="S23" s="27">
-        <v>1</v>
-      </c>
-      <c r="T23" s="27">
-        <v>1</v>
-      </c>
-      <c r="U23" s="27">
-        <v>1</v>
-      </c>
-      <c r="V23" s="27">
-        <v>1</v>
-      </c>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="23"/>
-      <c r="AN23" s="23"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="23"/>
-      <c r="AQ23" s="23"/>
-      <c r="AR23" s="23"/>
-      <c r="AS23" s="23"/>
-      <c r="AT23" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E23" s="26">
+        <v>1</v>
+      </c>
+      <c r="F23" s="26">
+        <v>1</v>
+      </c>
+      <c r="G23" s="26">
+        <v>1</v>
+      </c>
+      <c r="H23" s="26">
+        <v>1</v>
+      </c>
+      <c r="I23" s="26">
+        <v>1</v>
+      </c>
+      <c r="J23" s="26">
+        <v>1</v>
+      </c>
+      <c r="K23" s="26">
+        <v>1</v>
+      </c>
+      <c r="L23" s="26">
+        <v>1</v>
+      </c>
+      <c r="M23" s="26">
+        <v>1</v>
+      </c>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
       <c r="AU23" s="16">
         <v>9</v>
       </c>
       <c r="AV23" s="16">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -4842,89 +4882,89 @@
         <v>20</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="16">
-        <v>25</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="28">
-        <v>1</v>
-      </c>
-      <c r="W24" s="28">
-        <v>1</v>
-      </c>
-      <c r="X24" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="28">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="28">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="28">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="28">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="28">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="23"/>
-      <c r="AL24" s="23"/>
-      <c r="AM24" s="23"/>
-      <c r="AN24" s="23"/>
-      <c r="AO24" s="23"/>
-      <c r="AP24" s="23"/>
-      <c r="AQ24" s="23"/>
-      <c r="AR24" s="23"/>
-      <c r="AS24" s="23"/>
-      <c r="AT24" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E24" s="27">
+        <v>1</v>
+      </c>
+      <c r="F24" s="27">
+        <v>1</v>
+      </c>
+      <c r="G24" s="27">
+        <v>1</v>
+      </c>
+      <c r="H24" s="27">
+        <v>1</v>
+      </c>
+      <c r="I24" s="27">
+        <v>1</v>
+      </c>
+      <c r="J24" s="27">
+        <v>1</v>
+      </c>
+      <c r="K24" s="27">
+        <v>1</v>
+      </c>
+      <c r="L24" s="27">
+        <v>1</v>
+      </c>
+      <c r="M24" s="27">
+        <v>1</v>
+      </c>
+      <c r="N24" s="27">
+        <v>1</v>
+      </c>
+      <c r="O24" s="27">
+        <v>1</v>
+      </c>
+      <c r="P24" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>1</v>
+      </c>
+      <c r="R24" s="27">
+        <v>1</v>
+      </c>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="30"/>
       <c r="AU24" s="16">
         <v>14</v>
       </c>
       <c r="AV24" s="16">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -4932,161 +4972,161 @@
         <v>21</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="16">
-        <v>25</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="29">
-        <v>1</v>
-      </c>
-      <c r="W25" s="29">
-        <v>1</v>
-      </c>
-      <c r="X25" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E25" s="28">
+        <v>1</v>
+      </c>
+      <c r="F25" s="28">
+        <v>1</v>
+      </c>
+      <c r="G25" s="28">
+        <v>1</v>
+      </c>
+      <c r="H25" s="28">
+        <v>1</v>
+      </c>
+      <c r="I25" s="28">
+        <v>1</v>
+      </c>
+      <c r="J25" s="28">
+        <v>1</v>
+      </c>
+      <c r="K25" s="28">
+        <v>1</v>
+      </c>
+      <c r="L25" s="28">
+        <v>1</v>
+      </c>
+      <c r="M25" s="28">
+        <v>1</v>
+      </c>
+      <c r="N25" s="28">
+        <v>1</v>
+      </c>
+      <c r="O25" s="28">
+        <v>1</v>
+      </c>
+      <c r="P25" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="30"/>
+      <c r="AQ25" s="30"/>
+      <c r="AR25" s="30"/>
+      <c r="AS25" s="30"/>
+      <c r="AT25" s="30"/>
       <c r="AU25" s="16">
         <v>12</v>
       </c>
       <c r="AV25" s="16">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="17"/>
       <c r="B26" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="16">
-        <v>25</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="29">
-        <v>1</v>
-      </c>
-      <c r="W26" s="29">
-        <v>1</v>
-      </c>
-      <c r="X26" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="23"/>
-      <c r="AJ26" s="23"/>
-      <c r="AK26" s="23"/>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="23"/>
-      <c r="AN26" s="23"/>
-      <c r="AO26" s="23"/>
-      <c r="AP26" s="23"/>
-      <c r="AQ26" s="23"/>
-      <c r="AR26" s="23"/>
-      <c r="AS26" s="23"/>
-      <c r="AT26" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+      <c r="F26" s="28">
+        <v>1</v>
+      </c>
+      <c r="G26" s="28">
+        <v>1</v>
+      </c>
+      <c r="H26" s="28">
+        <v>1</v>
+      </c>
+      <c r="I26" s="28">
+        <v>1</v>
+      </c>
+      <c r="J26" s="28">
+        <v>1</v>
+      </c>
+      <c r="K26" s="28">
+        <v>1</v>
+      </c>
+      <c r="L26" s="28">
+        <v>1</v>
+      </c>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="30"/>
+      <c r="AT26" s="30"/>
       <c r="AU26" s="16">
         <v>8</v>
       </c>
       <c r="AV26" s="16">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -5094,264 +5134,760 @@
         <v>22</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="16">
-        <v>25</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="30">
-        <v>1</v>
-      </c>
-      <c r="W27" s="30">
-        <v>1</v>
-      </c>
-      <c r="X27" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="30">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AQ27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AR27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AS27" s="30">
-        <v>1</v>
-      </c>
-      <c r="AT27" s="30">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E27" s="29">
+        <v>1</v>
+      </c>
+      <c r="F27" s="29">
+        <v>1</v>
+      </c>
+      <c r="G27" s="29">
+        <v>1</v>
+      </c>
+      <c r="H27" s="29">
+        <v>1</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1</v>
+      </c>
+      <c r="J27" s="29">
+        <v>1</v>
+      </c>
+      <c r="K27" s="29">
+        <v>1</v>
+      </c>
+      <c r="L27" s="29">
+        <v>1</v>
+      </c>
+      <c r="M27" s="29">
+        <v>1</v>
+      </c>
+      <c r="N27" s="29">
+        <v>1</v>
+      </c>
+      <c r="O27" s="29">
+        <v>1</v>
+      </c>
+      <c r="P27" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="29">
+        <v>1</v>
+      </c>
+      <c r="R27" s="29">
+        <v>1</v>
+      </c>
+      <c r="S27" s="29">
+        <v>1</v>
+      </c>
+      <c r="T27" s="29">
+        <v>1</v>
+      </c>
+      <c r="U27" s="29">
+        <v>1</v>
+      </c>
+      <c r="V27" s="29">
+        <v>1</v>
+      </c>
+      <c r="W27" s="29">
+        <v>1</v>
+      </c>
+      <c r="X27" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="30"/>
+      <c r="AS27" s="30"/>
+      <c r="AT27" s="30"/>
       <c r="AU27" s="16">
         <v>25</v>
       </c>
       <c r="AV27" s="16">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="17"/>
       <c r="B28" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="16">
-        <v>25</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="30">
-        <v>1</v>
-      </c>
-      <c r="W28" s="30">
-        <v>1</v>
-      </c>
-      <c r="X28" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="30">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="30">
-        <v>1</v>
-      </c>
-      <c r="AP28" s="23"/>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E28" s="29">
+        <v>1</v>
+      </c>
+      <c r="F28" s="29">
+        <v>1</v>
+      </c>
+      <c r="G28" s="29">
+        <v>1</v>
+      </c>
+      <c r="H28" s="29">
+        <v>1</v>
+      </c>
+      <c r="I28" s="29">
+        <v>1</v>
+      </c>
+      <c r="J28" s="29">
+        <v>1</v>
+      </c>
+      <c r="K28" s="29">
+        <v>1</v>
+      </c>
+      <c r="L28" s="29">
+        <v>1</v>
+      </c>
+      <c r="M28" s="29">
+        <v>1</v>
+      </c>
+      <c r="N28" s="29">
+        <v>1</v>
+      </c>
+      <c r="O28" s="29">
+        <v>1</v>
+      </c>
+      <c r="P28" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>1</v>
+      </c>
+      <c r="R28" s="29">
+        <v>1</v>
+      </c>
+      <c r="S28" s="29">
+        <v>1</v>
+      </c>
+      <c r="T28" s="29">
+        <v>1</v>
+      </c>
+      <c r="U28" s="29">
+        <v>1</v>
+      </c>
+      <c r="V28" s="29">
+        <v>1</v>
+      </c>
+      <c r="W28" s="29">
+        <v>1</v>
+      </c>
+      <c r="X28" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="30"/>
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="30"/>
+      <c r="AT28" s="30"/>
       <c r="AU28" s="16">
         <v>20</v>
       </c>
       <c r="AV28" s="16">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="23"/>
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="23"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="23"/>
-      <c r="AP29" s="23"/>
-      <c r="AQ29" s="23"/>
-      <c r="AR29" s="23"/>
-      <c r="AS29" s="23"/>
-      <c r="AT29" s="23"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30"/>
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="30"/>
+      <c r="AN29" s="30"/>
+      <c r="AO29" s="30"/>
+      <c r="AP29" s="30"/>
+      <c r="AQ29" s="30"/>
+      <c r="AR29" s="30"/>
+      <c r="AS29" s="30"/>
+      <c r="AT29" s="30"/>
       <c r="AU29" s="16"/>
       <c r="AV29" s="16"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="30"/>
+      <c r="AQ30" s="30"/>
+      <c r="AR30" s="30"/>
+      <c r="AS30" s="30"/>
+      <c r="AT30" s="30"/>
+      <c r="AU30" s="16"/>
+      <c r="AV30" s="16"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="30"/>
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="30"/>
+      <c r="AS31" s="30"/>
+      <c r="AT31" s="30"/>
+      <c r="AU31" s="16"/>
+      <c r="AV31" s="16"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="30"/>
+      <c r="AM32" s="30"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="30"/>
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="30"/>
+      <c r="AS32" s="30"/>
+      <c r="AT32" s="30"/>
+      <c r="AU32" s="16"/>
+      <c r="AV32" s="16"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="30"/>
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30"/>
+      <c r="AO33" s="30"/>
+      <c r="AP33" s="30"/>
+      <c r="AQ33" s="30"/>
+      <c r="AR33" s="30"/>
+      <c r="AS33" s="30"/>
+      <c r="AT33" s="30"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="30"/>
+      <c r="AN34" s="30"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="30"/>
+      <c r="AR34" s="30"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="16"/>
+      <c r="AV34" s="16"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="30"/>
+      <c r="AJ35" s="30"/>
+      <c r="AK35" s="30"/>
+      <c r="AL35" s="30"/>
+      <c r="AM35" s="30"/>
+      <c r="AN35" s="30"/>
+      <c r="AO35" s="30"/>
+      <c r="AP35" s="30"/>
+      <c r="AQ35" s="30"/>
+      <c r="AR35" s="30"/>
+      <c r="AS35" s="30"/>
+      <c r="AT35" s="30"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="16">
+        <v>42</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="30"/>
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="30"/>
+      <c r="AS36" s="30"/>
+      <c r="AT36" s="30"/>
+      <c r="AU36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="16">
+        <v>42</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="30"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="30"/>
+      <c r="AM37" s="30"/>
+      <c r="AN37" s="30"/>
+      <c r="AO37" s="30"/>
+      <c r="AP37" s="30"/>
+      <c r="AQ37" s="30"/>
+      <c r="AR37" s="30"/>
+      <c r="AS37" s="30"/>
+      <c r="AT37" s="30"/>
+      <c r="AU37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30"/>
+      <c r="AM38" s="30"/>
+      <c r="AN38" s="30"/>
+      <c r="AO38" s="30"/>
+      <c r="AP38" s="30"/>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="30"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="16"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5372,6 +5908,13 @@
     <mergeCell ref="A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29"/>
+    <mergeCell ref="A30"/>
+    <mergeCell ref="A31"/>
+    <mergeCell ref="A32"/>
+    <mergeCell ref="A33"/>
+    <mergeCell ref="A34"/>
+    <mergeCell ref="A35"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/Resource Allocation Sheet.xlsx
+++ b/Resource Allocation Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t xml:space="preserve">Requirement </t>
   </si>
@@ -200,12 +200,6 @@
   </si>
   <si>
     <t>REPLACEMENT 2*</t>
-  </si>
-  <si>
-    <t>REPLACEMENT 3*</t>
-  </si>
-  <si>
-    <t>REPLACEMENT 4*</t>
   </si>
   <si>
     <t>Requirement</t>
@@ -374,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,83 +415,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF2445E5"/>
+      <color rgb="FFB80229"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFD5249B"/>
+      <color rgb="FF947A63"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFE3B480"/>
+      <color rgb="FF1BBF95"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFB028EA"/>
+      <color rgb="FFE832FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFEFD07A"/>
+      <color rgb="FF28DB8F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF5302D1"/>
+      <color rgb="FFB6A669"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3D7EDA"/>
+      <color rgb="FF1AD7C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF45FD01"/>
+      <color rgb="FFA7A19A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFD615F"/>
+      <color rgb="FFD9BA45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF6192B6"/>
+      <color rgb="FF67841F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF20753B"/>
+      <color rgb="FF2767A5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD8465B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,57 +513,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2445E5" tint="0"/>
+        <fgColor rgb="FFB80229" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5249B" tint="0"/>
+        <fgColor rgb="FF947A63" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3B480" tint="0"/>
+        <fgColor rgb="FF1BBF95" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB028EA" tint="0"/>
+        <fgColor rgb="FFE832FF" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFD07A" tint="0"/>
+        <fgColor rgb="FF28DB8F" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5302D1" tint="0"/>
+        <fgColor rgb="FFB6A669" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3D7EDA" tint="0"/>
+        <fgColor rgb="FF1AD7C0" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF45FD01" tint="0"/>
+        <fgColor rgb="FFA7A19A" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFD615F" tint="0"/>
+        <fgColor rgb="FFD9BA45" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6192B6" tint="0"/>
+        <fgColor rgb="FF67841F" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF20753B" tint="0"/>
+        <fgColor rgb="FF2767A5" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8465B" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -611,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
@@ -656,15 +662,16 @@
     <xf fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="8" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="10" applyFont="1" fillId="6" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf fontId="12" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf fontId="16" applyFont="1" fillId="12" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf fontId="18" applyFont="1" fillId="14" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf fontId="17" applyFont="1" fillId="13" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf fontId="13" applyFont="1" fillId="9" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="11" applyFont="1" fillId="7" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf fontId="12" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf fontId="13" applyFont="1" fillId="9" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf fontId="15" applyFont="1" fillId="11" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf fontId="14" applyFont="1" fillId="10" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf fontId="15" applyFont="1" fillId="11" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf fontId="16" applyFont="1" fillId="12" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf fontId="17" applyFont="1" fillId="13" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" activeCellId="1" sqref="A30:XFD33 H23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>42180</v>
+        <v>42237</v>
       </c>
       <c r="D25" s="2">
         <v>42237</v>
@@ -1407,47 +1414,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>42180</v>
+        <v>42237</v>
       </c>
       <c r="D27" s="2">
         <v>42237</v>
       </c>
       <c r="E27" s="13">
         <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2">
-        <v>42180</v>
-      </c>
-      <c r="D28" s="2">
-        <v>42237</v>
-      </c>
-      <c r="E28" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2">
-        <v>42180</v>
-      </c>
-      <c r="D29" s="2">
-        <v>42237</v>
-      </c>
-      <c r="E29" s="13">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1435,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2150,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AV38"/>
+  <dimension ref="A1:AV43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2235,148 +2208,148 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AV1" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="AU1" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV1" s="16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" ht="9.8" customHeight="1">
@@ -2385,130 +2358,130 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="J2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="O2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="R2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="S2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="T2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="X2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="W2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="Y2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AB2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AC2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AB2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC2" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="AD2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AG2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AH2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AG2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="AI2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AL2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AM2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AL2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM2" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="AN2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AQ2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AR2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AQ2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR2" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="AS2" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AT2" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AU2" s="16"/>
       <c r="AV2" s="16"/>
@@ -2631,13 +2604,13 @@
       <c r="AM3" s="19">
         <v>1</v>
       </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
       <c r="AU3" s="16">
         <v>35</v>
       </c>
@@ -2761,13 +2734,13 @@
       <c r="AM4" s="19">
         <v>1</v>
       </c>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="30"/>
-      <c r="AT4" s="30"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
       <c r="AU4" s="16">
         <v>35</v>
       </c>
@@ -2891,13 +2864,13 @@
       <c r="AM5" s="19">
         <v>1</v>
       </c>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="30"/>
-      <c r="AT5" s="30"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="22"/>
       <c r="AU5" s="16">
         <v>35</v>
       </c>
@@ -3021,13 +2994,13 @@
       <c r="AM6" s="19">
         <v>1</v>
       </c>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="30"/>
-      <c r="AT6" s="30"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
       <c r="AU6" s="16">
         <v>35</v>
       </c>
@@ -3151,13 +3124,13 @@
       <c r="AM7" s="19">
         <v>1</v>
       </c>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="30"/>
-      <c r="AS7" s="30"/>
-      <c r="AT7" s="30"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
       <c r="AU7" s="16">
         <v>35</v>
       </c>
@@ -3283,13 +3256,13 @@
       <c r="AM8" s="20">
         <v>1</v>
       </c>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="30"/>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="30"/>
-      <c r="AT8" s="30"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
       <c r="AU8" s="16">
         <v>35</v>
       </c>
@@ -3413,13 +3386,13 @@
       <c r="AM9" s="20">
         <v>1</v>
       </c>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
       <c r="AU9" s="16">
         <v>35</v>
       </c>
@@ -3513,23 +3486,23 @@
       <c r="AC10" s="20">
         <v>1</v>
       </c>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
       <c r="AU10" s="16">
         <v>25</v>
       </c>
@@ -3611,27 +3584,27 @@
       <c r="Y11" s="20">
         <v>1</v>
       </c>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
       <c r="AU11" s="16">
         <v>21</v>
       </c>
@@ -3772,8 +3745,8 @@
       <c r="AR12" s="21">
         <v>1</v>
       </c>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="30"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
       <c r="AU12" s="16">
         <v>40</v>
       </c>
@@ -3912,8 +3885,8 @@
       <c r="AR13" s="21">
         <v>1</v>
       </c>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
       <c r="AU13" s="16">
         <v>40</v>
       </c>
@@ -4052,8 +4025,8 @@
       <c r="AR14" s="21">
         <v>1</v>
       </c>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
       <c r="AU14" s="16">
         <v>40</v>
       </c>
@@ -4066,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>1</v>
@@ -4074,88 +4047,88 @@
       <c r="D15" s="16">
         <v>42</v>
       </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22">
-        <v>1</v>
-      </c>
-      <c r="H15" s="22">
-        <v>1</v>
-      </c>
-      <c r="I15" s="22">
-        <v>1</v>
-      </c>
-      <c r="J15" s="22">
-        <v>1</v>
-      </c>
-      <c r="K15" s="22">
-        <v>1</v>
-      </c>
-      <c r="L15" s="22">
-        <v>1</v>
-      </c>
-      <c r="M15" s="22">
-        <v>1</v>
-      </c>
-      <c r="N15" s="22">
-        <v>1</v>
-      </c>
-      <c r="O15" s="22">
-        <v>1</v>
-      </c>
-      <c r="P15" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>1</v>
-      </c>
-      <c r="R15" s="22">
-        <v>1</v>
-      </c>
-      <c r="S15" s="22">
-        <v>1</v>
-      </c>
-      <c r="T15" s="22">
-        <v>1</v>
-      </c>
-      <c r="U15" s="22">
-        <v>1</v>
-      </c>
-      <c r="V15" s="22">
-        <v>1</v>
-      </c>
-      <c r="W15" s="22">
-        <v>1</v>
-      </c>
-      <c r="X15" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="30"/>
-      <c r="AT15" s="30"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="22"/>
       <c r="AU15" s="16">
         <v>20</v>
       </c>
@@ -4166,7 +4139,7 @@
     <row r="16">
       <c r="A16" s="17"/>
       <c r="B16" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>1</v>
@@ -4174,88 +4147,88 @@
       <c r="D16" s="16">
         <v>42</v>
       </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22">
-        <v>1</v>
-      </c>
-      <c r="H16" s="22">
-        <v>1</v>
-      </c>
-      <c r="I16" s="22">
-        <v>1</v>
-      </c>
-      <c r="J16" s="22">
-        <v>1</v>
-      </c>
-      <c r="K16" s="22">
-        <v>1</v>
-      </c>
-      <c r="L16" s="22">
-        <v>1</v>
-      </c>
-      <c r="M16" s="22">
-        <v>1</v>
-      </c>
-      <c r="N16" s="22">
-        <v>1</v>
-      </c>
-      <c r="O16" s="22">
-        <v>1</v>
-      </c>
-      <c r="P16" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>1</v>
-      </c>
-      <c r="R16" s="22">
-        <v>1</v>
-      </c>
-      <c r="S16" s="22">
-        <v>1</v>
-      </c>
-      <c r="T16" s="22">
-        <v>1</v>
-      </c>
-      <c r="U16" s="22">
-        <v>1</v>
-      </c>
-      <c r="V16" s="22">
-        <v>1</v>
-      </c>
-      <c r="W16" s="22">
-        <v>1</v>
-      </c>
-      <c r="X16" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
-      <c r="AQ16" s="30"/>
-      <c r="AR16" s="30"/>
-      <c r="AS16" s="30"/>
-      <c r="AT16" s="30"/>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1</v>
+      </c>
+      <c r="J16" s="23">
+        <v>1</v>
+      </c>
+      <c r="K16" s="23">
+        <v>1</v>
+      </c>
+      <c r="L16" s="23">
+        <v>1</v>
+      </c>
+      <c r="M16" s="23">
+        <v>1</v>
+      </c>
+      <c r="N16" s="23">
+        <v>1</v>
+      </c>
+      <c r="O16" s="23">
+        <v>1</v>
+      </c>
+      <c r="P16" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>1</v>
+      </c>
+      <c r="R16" s="23">
+        <v>1</v>
+      </c>
+      <c r="S16" s="23">
+        <v>1</v>
+      </c>
+      <c r="T16" s="23">
+        <v>1</v>
+      </c>
+      <c r="U16" s="23">
+        <v>1</v>
+      </c>
+      <c r="V16" s="23">
+        <v>1</v>
+      </c>
+      <c r="W16" s="23">
+        <v>1</v>
+      </c>
+      <c r="X16" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
       <c r="AU16" s="16">
         <v>20</v>
       </c>
@@ -4266,7 +4239,7 @@
     <row r="17">
       <c r="A17" s="17"/>
       <c r="B17" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>1</v>
@@ -4274,88 +4247,88 @@
       <c r="D17" s="16">
         <v>42</v>
       </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="22">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1</v>
-      </c>
-      <c r="I17" s="22">
-        <v>1</v>
-      </c>
-      <c r="J17" s="22">
-        <v>1</v>
-      </c>
-      <c r="K17" s="22">
-        <v>1</v>
-      </c>
-      <c r="L17" s="22">
-        <v>1</v>
-      </c>
-      <c r="M17" s="22">
-        <v>1</v>
-      </c>
-      <c r="N17" s="22">
-        <v>1</v>
-      </c>
-      <c r="O17" s="22">
-        <v>1</v>
-      </c>
-      <c r="P17" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>1</v>
-      </c>
-      <c r="R17" s="22">
-        <v>1</v>
-      </c>
-      <c r="S17" s="22">
-        <v>1</v>
-      </c>
-      <c r="T17" s="22">
-        <v>1</v>
-      </c>
-      <c r="U17" s="22">
-        <v>1</v>
-      </c>
-      <c r="V17" s="22">
-        <v>1</v>
-      </c>
-      <c r="W17" s="22">
-        <v>1</v>
-      </c>
-      <c r="X17" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="30"/>
-      <c r="AT17" s="30"/>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>1</v>
+      </c>
+      <c r="J17" s="23">
+        <v>1</v>
+      </c>
+      <c r="K17" s="23">
+        <v>1</v>
+      </c>
+      <c r="L17" s="23">
+        <v>1</v>
+      </c>
+      <c r="M17" s="23">
+        <v>1</v>
+      </c>
+      <c r="N17" s="23">
+        <v>1</v>
+      </c>
+      <c r="O17" s="23">
+        <v>1</v>
+      </c>
+      <c r="P17" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>1</v>
+      </c>
+      <c r="R17" s="23">
+        <v>1</v>
+      </c>
+      <c r="S17" s="23">
+        <v>1</v>
+      </c>
+      <c r="T17" s="23">
+        <v>1</v>
+      </c>
+      <c r="U17" s="23">
+        <v>1</v>
+      </c>
+      <c r="V17" s="23">
+        <v>1</v>
+      </c>
+      <c r="W17" s="23">
+        <v>1</v>
+      </c>
+      <c r="X17" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
       <c r="AU17" s="16">
         <v>20</v>
       </c>
@@ -4374,84 +4347,84 @@
       <c r="D18" s="16">
         <v>42</v>
       </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
-      <c r="F18" s="22">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22">
-        <v>1</v>
-      </c>
-      <c r="H18" s="22">
-        <v>1</v>
-      </c>
-      <c r="I18" s="22">
-        <v>1</v>
-      </c>
-      <c r="J18" s="22">
-        <v>1</v>
-      </c>
-      <c r="K18" s="22">
-        <v>1</v>
-      </c>
-      <c r="L18" s="22">
-        <v>1</v>
-      </c>
-      <c r="M18" s="22">
-        <v>1</v>
-      </c>
-      <c r="N18" s="22">
-        <v>1</v>
-      </c>
-      <c r="O18" s="22">
-        <v>1</v>
-      </c>
-      <c r="P18" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>1</v>
-      </c>
-      <c r="R18" s="22">
-        <v>1</v>
-      </c>
-      <c r="S18" s="22">
-        <v>1</v>
-      </c>
-      <c r="T18" s="22">
-        <v>1</v>
-      </c>
-      <c r="U18" s="22">
-        <v>1</v>
-      </c>
-      <c r="V18" s="22">
-        <v>1</v>
-      </c>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="30"/>
-      <c r="AT18" s="30"/>
+      <c r="E18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
+      <c r="J18" s="23">
+        <v>1</v>
+      </c>
+      <c r="K18" s="23">
+        <v>1</v>
+      </c>
+      <c r="L18" s="23">
+        <v>1</v>
+      </c>
+      <c r="M18" s="23">
+        <v>1</v>
+      </c>
+      <c r="N18" s="23">
+        <v>1</v>
+      </c>
+      <c r="O18" s="23">
+        <v>1</v>
+      </c>
+      <c r="P18" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>1</v>
+      </c>
+      <c r="R18" s="23">
+        <v>1</v>
+      </c>
+      <c r="S18" s="23">
+        <v>1</v>
+      </c>
+      <c r="T18" s="23">
+        <v>1</v>
+      </c>
+      <c r="U18" s="23">
+        <v>1</v>
+      </c>
+      <c r="V18" s="23">
+        <v>1</v>
+      </c>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
       <c r="AU18" s="16">
         <v>18</v>
       </c>
@@ -4464,7 +4437,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>4</v>
@@ -4472,78 +4445,78 @@
       <c r="D19" s="16">
         <v>42</v>
       </c>
-      <c r="E19" s="23">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23">
-        <v>1</v>
-      </c>
-      <c r="G19" s="23">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23">
-        <v>1</v>
-      </c>
-      <c r="I19" s="23">
-        <v>1</v>
-      </c>
-      <c r="J19" s="23">
-        <v>1</v>
-      </c>
-      <c r="K19" s="23">
-        <v>1</v>
-      </c>
-      <c r="L19" s="23">
-        <v>1</v>
-      </c>
-      <c r="M19" s="23">
-        <v>1</v>
-      </c>
-      <c r="N19" s="23">
-        <v>1</v>
-      </c>
-      <c r="O19" s="23">
-        <v>1</v>
-      </c>
-      <c r="P19" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>1</v>
-      </c>
-      <c r="R19" s="23">
-        <v>1</v>
-      </c>
-      <c r="S19" s="23">
-        <v>1</v>
-      </c>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="29">
+        <v>1</v>
+      </c>
+      <c r="X19" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
       <c r="AU19" s="16">
         <v>15</v>
       </c>
@@ -4556,7 +4529,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>4</v>
@@ -4603,35 +4576,35 @@
       <c r="Q20" s="24">
         <v>1</v>
       </c>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="30"/>
-      <c r="AS20" s="30"/>
-      <c r="AT20" s="30"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
       <c r="AU20" s="16">
         <v>13</v>
       </c>
@@ -4642,7 +4615,7 @@
     <row r="21">
       <c r="A21" s="17"/>
       <c r="B21" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>1</v>
@@ -4668,42 +4641,42 @@
       <c r="J21" s="24">
         <v>1</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="30"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
       <c r="AU21" s="16">
         <v>6</v>
       </c>
@@ -4716,7 +4689,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>4</v>
@@ -4724,72 +4697,72 @@
       <c r="D22" s="16">
         <v>42</v>
       </c>
-      <c r="E22" s="25">
-        <v>1</v>
-      </c>
-      <c r="F22" s="25">
-        <v>1</v>
-      </c>
-      <c r="G22" s="25">
-        <v>1</v>
-      </c>
-      <c r="H22" s="25">
-        <v>1</v>
-      </c>
-      <c r="I22" s="25">
-        <v>1</v>
-      </c>
-      <c r="J22" s="25">
-        <v>1</v>
-      </c>
-      <c r="K22" s="25">
-        <v>1</v>
-      </c>
-      <c r="L22" s="25">
-        <v>1</v>
-      </c>
-      <c r="M22" s="25">
-        <v>1</v>
-      </c>
-      <c r="N22" s="25">
-        <v>1</v>
-      </c>
-      <c r="O22" s="25">
-        <v>1</v>
-      </c>
-      <c r="P22" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="28">
+        <v>1</v>
+      </c>
+      <c r="S22" s="28">
+        <v>1</v>
+      </c>
+      <c r="T22" s="28">
+        <v>1</v>
+      </c>
+      <c r="U22" s="28">
+        <v>1</v>
+      </c>
+      <c r="V22" s="28">
+        <v>1</v>
+      </c>
+      <c r="W22" s="28">
+        <v>1</v>
+      </c>
+      <c r="X22" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
       <c r="AU22" s="16">
         <v>12</v>
       </c>
@@ -4802,7 +4775,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>4</v>
@@ -4810,66 +4783,66 @@
       <c r="D23" s="16">
         <v>42</v>
       </c>
-      <c r="E23" s="26">
-        <v>1</v>
-      </c>
-      <c r="F23" s="26">
-        <v>1</v>
-      </c>
-      <c r="G23" s="26">
-        <v>1</v>
-      </c>
-      <c r="H23" s="26">
-        <v>1</v>
-      </c>
-      <c r="I23" s="26">
-        <v>1</v>
-      </c>
-      <c r="J23" s="26">
-        <v>1</v>
-      </c>
-      <c r="K23" s="26">
-        <v>1</v>
-      </c>
-      <c r="L23" s="26">
-        <v>1</v>
-      </c>
-      <c r="M23" s="26">
-        <v>1</v>
-      </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="30"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="30"/>
-      <c r="AT23" s="30"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="31">
+        <v>1</v>
+      </c>
       <c r="AU23" s="16">
         <v>9</v>
       </c>
@@ -4882,7 +4855,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>4</v>
@@ -4890,76 +4863,76 @@
       <c r="D24" s="16">
         <v>42</v>
       </c>
-      <c r="E24" s="27">
-        <v>1</v>
-      </c>
-      <c r="F24" s="27">
-        <v>1</v>
-      </c>
-      <c r="G24" s="27">
-        <v>1</v>
-      </c>
-      <c r="H24" s="27">
-        <v>1</v>
-      </c>
-      <c r="I24" s="27">
-        <v>1</v>
-      </c>
-      <c r="J24" s="27">
-        <v>1</v>
-      </c>
-      <c r="K24" s="27">
-        <v>1</v>
-      </c>
-      <c r="L24" s="27">
-        <v>1</v>
-      </c>
-      <c r="M24" s="27">
-        <v>1</v>
-      </c>
-      <c r="N24" s="27">
-        <v>1</v>
-      </c>
-      <c r="O24" s="27">
-        <v>1</v>
-      </c>
-      <c r="P24" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="27">
-        <v>1</v>
-      </c>
-      <c r="R24" s="27">
-        <v>1</v>
-      </c>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
       <c r="AU24" s="16">
         <v>14</v>
       </c>
@@ -4972,7 +4945,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>4</v>
@@ -4980,72 +4953,72 @@
       <c r="D25" s="16">
         <v>42</v>
       </c>
-      <c r="E25" s="28">
-        <v>1</v>
-      </c>
-      <c r="F25" s="28">
-        <v>1</v>
-      </c>
-      <c r="G25" s="28">
-        <v>1</v>
-      </c>
-      <c r="H25" s="28">
-        <v>1</v>
-      </c>
-      <c r="I25" s="28">
-        <v>1</v>
-      </c>
-      <c r="J25" s="28">
-        <v>1</v>
-      </c>
-      <c r="K25" s="28">
-        <v>1</v>
-      </c>
-      <c r="L25" s="28">
-        <v>1</v>
-      </c>
-      <c r="M25" s="28">
-        <v>1</v>
-      </c>
-      <c r="N25" s="28">
-        <v>1</v>
-      </c>
-      <c r="O25" s="28">
-        <v>1</v>
-      </c>
-      <c r="P25" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="30"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
+      <c r="E25" s="25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="25">
+        <v>1</v>
+      </c>
+      <c r="O25" s="25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
       <c r="AU25" s="16">
         <v>12</v>
       </c>
@@ -5056,7 +5029,7 @@
     <row r="26">
       <c r="A26" s="17"/>
       <c r="B26" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>1</v>
@@ -5064,64 +5037,64 @@
       <c r="D26" s="16">
         <v>42</v>
       </c>
-      <c r="E26" s="28">
-        <v>1</v>
-      </c>
-      <c r="F26" s="28">
-        <v>1</v>
-      </c>
-      <c r="G26" s="28">
-        <v>1</v>
-      </c>
-      <c r="H26" s="28">
-        <v>1</v>
-      </c>
-      <c r="I26" s="28">
-        <v>1</v>
-      </c>
-      <c r="J26" s="28">
-        <v>1</v>
-      </c>
-      <c r="K26" s="28">
-        <v>1</v>
-      </c>
-      <c r="L26" s="28">
-        <v>1</v>
-      </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="30"/>
+      <c r="E26" s="25">
+        <v>1</v>
+      </c>
+      <c r="F26" s="25">
+        <v>1</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="25">
+        <v>1</v>
+      </c>
+      <c r="J26" s="25">
+        <v>1</v>
+      </c>
+      <c r="K26" s="25">
+        <v>1</v>
+      </c>
+      <c r="L26" s="25">
+        <v>1</v>
+      </c>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="22"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
       <c r="AU26" s="16">
         <v>8</v>
       </c>
@@ -5134,7 +5107,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>4</v>
@@ -5142,98 +5115,98 @@
       <c r="D27" s="16">
         <v>42</v>
       </c>
-      <c r="E27" s="29">
-        <v>1</v>
-      </c>
-      <c r="F27" s="29">
-        <v>1</v>
-      </c>
-      <c r="G27" s="29">
-        <v>1</v>
-      </c>
-      <c r="H27" s="29">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-      <c r="J27" s="29">
-        <v>1</v>
-      </c>
-      <c r="K27" s="29">
-        <v>1</v>
-      </c>
-      <c r="L27" s="29">
-        <v>1</v>
-      </c>
-      <c r="M27" s="29">
-        <v>1</v>
-      </c>
-      <c r="N27" s="29">
-        <v>1</v>
-      </c>
-      <c r="O27" s="29">
-        <v>1</v>
-      </c>
-      <c r="P27" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="29">
-        <v>1</v>
-      </c>
-      <c r="R27" s="29">
-        <v>1</v>
-      </c>
-      <c r="S27" s="29">
-        <v>1</v>
-      </c>
-      <c r="T27" s="29">
-        <v>1</v>
-      </c>
-      <c r="U27" s="29">
-        <v>1</v>
-      </c>
-      <c r="V27" s="29">
-        <v>1</v>
-      </c>
-      <c r="W27" s="29">
-        <v>1</v>
-      </c>
-      <c r="X27" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="27">
+        <v>1</v>
+      </c>
+      <c r="R27" s="27">
+        <v>1</v>
+      </c>
+      <c r="S27" s="27">
+        <v>1</v>
+      </c>
+      <c r="T27" s="27">
+        <v>1</v>
+      </c>
+      <c r="U27" s="27">
+        <v>1</v>
+      </c>
+      <c r="V27" s="27">
+        <v>1</v>
+      </c>
+      <c r="W27" s="27">
+        <v>1</v>
+      </c>
+      <c r="X27" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
       <c r="AU27" s="16">
         <v>25</v>
       </c>
@@ -5244,7 +5217,7 @@
     <row r="28">
       <c r="A28" s="17"/>
       <c r="B28" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>1</v>
@@ -5252,88 +5225,88 @@
       <c r="D28" s="16">
         <v>42</v>
       </c>
-      <c r="E28" s="29">
-        <v>1</v>
-      </c>
-      <c r="F28" s="29">
-        <v>1</v>
-      </c>
-      <c r="G28" s="29">
-        <v>1</v>
-      </c>
-      <c r="H28" s="29">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29">
-        <v>1</v>
-      </c>
-      <c r="J28" s="29">
-        <v>1</v>
-      </c>
-      <c r="K28" s="29">
-        <v>1</v>
-      </c>
-      <c r="L28" s="29">
-        <v>1</v>
-      </c>
-      <c r="M28" s="29">
-        <v>1</v>
-      </c>
-      <c r="N28" s="29">
-        <v>1</v>
-      </c>
-      <c r="O28" s="29">
-        <v>1</v>
-      </c>
-      <c r="P28" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="29">
-        <v>1</v>
-      </c>
-      <c r="R28" s="29">
-        <v>1</v>
-      </c>
-      <c r="S28" s="29">
-        <v>1</v>
-      </c>
-      <c r="T28" s="29">
-        <v>1</v>
-      </c>
-      <c r="U28" s="29">
-        <v>1</v>
-      </c>
-      <c r="V28" s="29">
-        <v>1</v>
-      </c>
-      <c r="W28" s="29">
-        <v>1</v>
-      </c>
-      <c r="X28" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
       <c r="AU28" s="16">
         <v>20</v>
       </c>
@@ -5346,548 +5319,1096 @@
         <v>23</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="30"/>
-      <c r="AR29" s="30"/>
-      <c r="AS29" s="30"/>
-      <c r="AT29" s="30"/>
-      <c r="AU29" s="16"/>
-      <c r="AV29" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="16">
+        <v>42</v>
+      </c>
+      <c r="E29" s="26">
+        <v>1</v>
+      </c>
+      <c r="F29" s="26">
+        <v>1</v>
+      </c>
+      <c r="G29" s="26">
+        <v>1</v>
+      </c>
+      <c r="H29" s="26">
+        <v>1</v>
+      </c>
+      <c r="I29" s="26">
+        <v>1</v>
+      </c>
+      <c r="J29" s="26">
+        <v>1</v>
+      </c>
+      <c r="K29" s="26">
+        <v>1</v>
+      </c>
+      <c r="L29" s="26">
+        <v>1</v>
+      </c>
+      <c r="M29" s="26">
+        <v>1</v>
+      </c>
+      <c r="N29" s="26">
+        <v>1</v>
+      </c>
+      <c r="O29" s="26">
+        <v>1</v>
+      </c>
+      <c r="P29" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>1</v>
+      </c>
+      <c r="R29" s="26">
+        <v>1</v>
+      </c>
+      <c r="S29" s="26">
+        <v>1</v>
+      </c>
+      <c r="T29" s="26">
+        <v>1</v>
+      </c>
+      <c r="U29" s="26">
+        <v>1</v>
+      </c>
+      <c r="V29" s="26">
+        <v>1</v>
+      </c>
+      <c r="W29" s="26">
+        <v>1</v>
+      </c>
+      <c r="X29" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="16">
+        <v>40</v>
+      </c>
+      <c r="AV29" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="A30" s="17"/>
       <c r="B30" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
-      <c r="AM30" s="30"/>
-      <c r="AN30" s="30"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="30"/>
-      <c r="AR30" s="30"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="30"/>
-      <c r="AU30" s="16"/>
-      <c r="AV30" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="16">
+        <v>42</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="16">
+        <v>20</v>
+      </c>
+      <c r="AV30" s="16">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="A31" s="17"/>
       <c r="B31" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="30"/>
-      <c r="AH31" s="30"/>
-      <c r="AI31" s="30"/>
-      <c r="AJ31" s="30"/>
-      <c r="AK31" s="30"/>
-      <c r="AL31" s="30"/>
-      <c r="AM31" s="30"/>
-      <c r="AN31" s="30"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="30"/>
-      <c r="AQ31" s="30"/>
-      <c r="AR31" s="30"/>
-      <c r="AS31" s="30"/>
-      <c r="AT31" s="30"/>
-      <c r="AU31" s="16"/>
-      <c r="AV31" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="16">
+        <v>42</v>
+      </c>
+      <c r="E31" s="26">
+        <v>1</v>
+      </c>
+      <c r="F31" s="26">
+        <v>1</v>
+      </c>
+      <c r="G31" s="26">
+        <v>1</v>
+      </c>
+      <c r="H31" s="26">
+        <v>1</v>
+      </c>
+      <c r="I31" s="26">
+        <v>1</v>
+      </c>
+      <c r="J31" s="26">
+        <v>1</v>
+      </c>
+      <c r="K31" s="26">
+        <v>1</v>
+      </c>
+      <c r="L31" s="26">
+        <v>1</v>
+      </c>
+      <c r="M31" s="26">
+        <v>1</v>
+      </c>
+      <c r="N31" s="26">
+        <v>1</v>
+      </c>
+      <c r="O31" s="26">
+        <v>1</v>
+      </c>
+      <c r="P31" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>1</v>
+      </c>
+      <c r="R31" s="26">
+        <v>1</v>
+      </c>
+      <c r="S31" s="26">
+        <v>1</v>
+      </c>
+      <c r="T31" s="26">
+        <v>1</v>
+      </c>
+      <c r="U31" s="26">
+        <v>1</v>
+      </c>
+      <c r="V31" s="26">
+        <v>1</v>
+      </c>
+      <c r="W31" s="26">
+        <v>1</v>
+      </c>
+      <c r="X31" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="16">
+        <v>40</v>
+      </c>
+      <c r="AV31" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="A32" s="17"/>
       <c r="B32" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="30"/>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="30"/>
-      <c r="AL32" s="30"/>
-      <c r="AM32" s="30"/>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
-      <c r="AQ32" s="30"/>
-      <c r="AR32" s="30"/>
-      <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
-      <c r="AU32" s="16"/>
-      <c r="AV32" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="16">
+        <v>42</v>
+      </c>
+      <c r="E32" s="26">
+        <v>1</v>
+      </c>
+      <c r="F32" s="26">
+        <v>1</v>
+      </c>
+      <c r="G32" s="26">
+        <v>1</v>
+      </c>
+      <c r="H32" s="26">
+        <v>1</v>
+      </c>
+      <c r="I32" s="26">
+        <v>1</v>
+      </c>
+      <c r="J32" s="26">
+        <v>1</v>
+      </c>
+      <c r="K32" s="26">
+        <v>1</v>
+      </c>
+      <c r="L32" s="26">
+        <v>1</v>
+      </c>
+      <c r="M32" s="26">
+        <v>1</v>
+      </c>
+      <c r="N32" s="26">
+        <v>1</v>
+      </c>
+      <c r="O32" s="26">
+        <v>1</v>
+      </c>
+      <c r="P32" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>1</v>
+      </c>
+      <c r="R32" s="26">
+        <v>1</v>
+      </c>
+      <c r="S32" s="26">
+        <v>1</v>
+      </c>
+      <c r="T32" s="26">
+        <v>1</v>
+      </c>
+      <c r="U32" s="26">
+        <v>1</v>
+      </c>
+      <c r="V32" s="26">
+        <v>1</v>
+      </c>
+      <c r="W32" s="26">
+        <v>1</v>
+      </c>
+      <c r="X32" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22"/>
+      <c r="AQ32" s="22"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="22"/>
+      <c r="AU32" s="16">
+        <v>20</v>
+      </c>
+      <c r="AV32" s="16">
+        <v>22</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
-      <c r="AL33" s="30"/>
-      <c r="AM33" s="30"/>
-      <c r="AN33" s="30"/>
-      <c r="AO33" s="30"/>
-      <c r="AP33" s="30"/>
-      <c r="AQ33" s="30"/>
-      <c r="AR33" s="30"/>
-      <c r="AS33" s="30"/>
-      <c r="AT33" s="30"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="22"/>
+      <c r="AO33" s="22"/>
+      <c r="AP33" s="22"/>
+      <c r="AQ33" s="22"/>
+      <c r="AR33" s="22"/>
+      <c r="AS33" s="22"/>
+      <c r="AT33" s="22"/>
       <c r="AU33" s="16"/>
       <c r="AV33" s="16"/>
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="30"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="30"/>
-      <c r="AM34" s="30"/>
-      <c r="AN34" s="30"/>
-      <c r="AO34" s="30"/>
-      <c r="AP34" s="30"/>
-      <c r="AQ34" s="30"/>
-      <c r="AR34" s="30"/>
-      <c r="AS34" s="30"/>
-      <c r="AT34" s="30"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="22"/>
+      <c r="AM34" s="22"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="22"/>
+      <c r="AP34" s="22"/>
+      <c r="AQ34" s="22"/>
+      <c r="AR34" s="22"/>
+      <c r="AS34" s="22"/>
+      <c r="AT34" s="22"/>
       <c r="AU34" s="16"/>
       <c r="AV34" s="16"/>
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="30"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="30"/>
-      <c r="AN35" s="30"/>
-      <c r="AO35" s="30"/>
-      <c r="AP35" s="30"/>
-      <c r="AQ35" s="30"/>
-      <c r="AR35" s="30"/>
-      <c r="AS35" s="30"/>
-      <c r="AT35" s="30"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="22"/>
+      <c r="AO35" s="22"/>
+      <c r="AP35" s="22"/>
+      <c r="AQ35" s="22"/>
+      <c r="AR35" s="22"/>
+      <c r="AS35" s="22"/>
+      <c r="AT35" s="22"/>
       <c r="AU35" s="16"/>
       <c r="AV35" s="16"/>
     </row>
     <row r="36">
-      <c r="A36" s="16"/>
+      <c r="A36" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="B36" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="16">
-        <v>42</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="30"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30"/>
-      <c r="AM36" s="30"/>
-      <c r="AN36" s="30"/>
-      <c r="AO36" s="30"/>
-      <c r="AP36" s="30"/>
-      <c r="AQ36" s="30"/>
-      <c r="AR36" s="30"/>
-      <c r="AS36" s="30"/>
-      <c r="AT36" s="30"/>
-      <c r="AU36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="16">
-        <v>42</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
+      <c r="AQ36" s="22"/>
+      <c r="AR36" s="22"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
+      <c r="AU36" s="16"/>
+      <c r="AV36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="B37" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="16">
-        <v>42</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="30"/>
-      <c r="AN37" s="30"/>
-      <c r="AO37" s="30"/>
-      <c r="AP37" s="30"/>
-      <c r="AQ37" s="30"/>
-      <c r="AR37" s="30"/>
-      <c r="AS37" s="30"/>
-      <c r="AT37" s="30"/>
-      <c r="AU37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AV37" s="16">
-        <v>42</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
+      <c r="AQ37" s="22"/>
+      <c r="AR37" s="22"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+      <c r="AU37" s="16"/>
+      <c r="AV37" s="16"/>
     </row>
     <row r="38">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="30"/>
-      <c r="AI38" s="30"/>
-      <c r="AJ38" s="30"/>
-      <c r="AK38" s="30"/>
-      <c r="AL38" s="30"/>
-      <c r="AM38" s="30"/>
-      <c r="AN38" s="30"/>
-      <c r="AO38" s="30"/>
-      <c r="AP38" s="30"/>
-      <c r="AQ38" s="30"/>
-      <c r="AR38" s="30"/>
-      <c r="AS38" s="30"/>
-      <c r="AT38" s="30"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="22"/>
+      <c r="AQ38" s="22"/>
+      <c r="AR38" s="22"/>
+      <c r="AS38" s="22"/>
+      <c r="AT38" s="22"/>
       <c r="AU38" s="16"/>
       <c r="AV38" s="16"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="16">
+        <v>42</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39" s="22"/>
+      <c r="AP39" s="22"/>
+      <c r="AQ39" s="22"/>
+      <c r="AR39" s="22"/>
+      <c r="AS39" s="22"/>
+      <c r="AT39" s="22"/>
+      <c r="AU39" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="22"/>
+      <c r="AQ40" s="22"/>
+      <c r="AR40" s="22"/>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="22"/>
+      <c r="AU40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="16">
+        <v>42</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
+      <c r="AQ41" s="22"/>
+      <c r="AR41" s="22"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="22"/>
+      <c r="AU41" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+      <c r="AN42" s="22"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="22"/>
+      <c r="AQ42" s="22"/>
+      <c r="AR42" s="22"/>
+      <c r="AS42" s="22"/>
+      <c r="AT42" s="22"/>
+      <c r="AU42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="22"/>
+      <c r="AK43" s="22"/>
+      <c r="AL43" s="22"/>
+      <c r="AM43" s="22"/>
+      <c r="AN43" s="22"/>
+      <c r="AO43" s="22"/>
+      <c r="AP43" s="22"/>
+      <c r="AQ43" s="22"/>
+      <c r="AR43" s="22"/>
+      <c r="AS43" s="22"/>
+      <c r="AT43" s="22"/>
+      <c r="AU43" s="16"/>
+      <c r="AV43" s="16"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5908,13 +6429,13 @@
     <mergeCell ref="A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29"/>
-    <mergeCell ref="A30"/>
-    <mergeCell ref="A31"/>
-    <mergeCell ref="A32"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33"/>
     <mergeCell ref="A34"/>
     <mergeCell ref="A35"/>
+    <mergeCell ref="A36"/>
+    <mergeCell ref="A37"/>
+    <mergeCell ref="A38"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
